--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9357FFBDA6DE7044C7BEA8D1C77FF7F47B94DD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A375F413-C5DF-4F95-9BF2-4E9F144BCEE2}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,101 +33,101 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
-    <t xml:space="preserve">Card ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collector Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1778cf9a-2703-41e9-86d7-ec21af8cf61d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainok Bond-Kin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.cardsandhobbies.com/images/1778cf9a-2703-41e9-86d7-ec21af8cf61d/card.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlast [1][W] ([1][W], [Tap]: Put a +1/+1 counter on this creature. Outlast only as a sorcery.)
+    <t>Card ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Collector Number</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>1778cf9a-2703-41e9-86d7-ec21af8cf61d</t>
+  </si>
+  <si>
+    <t>Ainok Bond-Kin</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>https://data.cardsandhobbies.com/images/1778cf9a-2703-41e9-86d7-ec21af8cf61d/card.jpg</t>
+  </si>
+  <si>
+    <t>Outlast [1][W] ([1][W], [Tap]: Put a +1/+1 counter on this creature. Outlast only as a sorcery.)
 Each creature you control with a +1/+1 counter on it has first strike.</t>
   </si>
   <si>
-    <t xml:space="preserve">d4282ddd-3e5b-4d4c-b1b7-a48401a3521f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrenn and Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.cardsandhobbies.com/images/d4282ddd-3e5b-4d4c-b1b7-a48401a3521f/card.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1: Return up to one target land card from your graveyard to your hand.
+    <t>d4282ddd-3e5b-4d4c-b1b7-a48401a3521f</t>
+  </si>
+  <si>
+    <t>Wrenn and Six</t>
+  </si>
+  <si>
+    <t>https://data.cardsandhobbies.com/images/d4282ddd-3e5b-4d4c-b1b7-a48401a3521f/card.jpg</t>
+  </si>
+  <si>
+    <t>+1: Return up to one target land card from your graveyard to your hand.
 −1: Wrenn and Six deals 1 damage to any target.
 −7: You get an emblem with "Instant and sorcery cards in your graveyard have retrace." (You may cast instant and sorcery cards from your graveyard by discarding a land card in addition to paying their other costs.)</t>
   </si>
   <si>
-    <t xml:space="preserve">1825a719-1b2a-4af9-9cd2-7cb497cd0317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force of Negation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.cardsandhobbies.com/images/1825a719-1b2a-4af9-9cd2-7cb497cd0317/card.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If it's not your turn, you may exile a blue card from your hand rather than pay this spell's mana cost.
+    <t>1825a719-1b2a-4af9-9cd2-7cb497cd0317</t>
+  </si>
+  <si>
+    <t>Force of Negation</t>
+  </si>
+  <si>
+    <t>https://data.cardsandhobbies.com/images/1825a719-1b2a-4af9-9cd2-7cb497cd0317/card.jpg</t>
+  </si>
+  <si>
+    <t>If it's not your turn, you may exile a blue card from your hand rather than pay this spell's mana cost.
 Counter target noncreature spell. If that spell is countered this way, exile it instead of putting it into its owner's graveyard.</t>
   </si>
   <si>
-    <t xml:space="preserve">3c429c40-2389-41e5-8681-4bb274e25eba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mana Drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.cardsandhobbies.com/images/3c429c40-2389-41e5-8681-4bb274e25eba/card.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter target spell. At the beginning of your next main phase, add an amount of [C] equal to that spell's mana value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9e2e3efb-75cb-430f-b9f4-cb58f3aeb91b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dockside Extortionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.cardsandhobbies.com/images/9e2e3efb-75cb-430f-b9f4-cb58f3aeb91b/card.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Dockside Extortionist enters the battlefield, create X Treasure tokens, where X is the number of artifacts and enchantments your opponents control. (Treasure tokens are artifacts with "[Tap], Sacrifice this artifact: Add one mana of any color.")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1a31d52-a407-4ded-bfca-cc812f11afa0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mana Vault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.cardsandhobbies.com/images/c1a31d52-a407-4ded-bfca-cc812f11afa0/card.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mana Vault doesn't untap during your untap step.
+    <t>3c429c40-2389-41e5-8681-4bb274e25eba</t>
+  </si>
+  <si>
+    <t>Mana Drain</t>
+  </si>
+  <si>
+    <t>https://data.cardsandhobbies.com/images/3c429c40-2389-41e5-8681-4bb274e25eba/card.jpg</t>
+  </si>
+  <si>
+    <t>Counter target spell. At the beginning of your next main phase, add an amount of [C] equal to that spell's mana value.</t>
+  </si>
+  <si>
+    <t>9e2e3efb-75cb-430f-b9f4-cb58f3aeb91b</t>
+  </si>
+  <si>
+    <t>Dockside Extortionist</t>
+  </si>
+  <si>
+    <t>https://data.cardsandhobbies.com/images/9e2e3efb-75cb-430f-b9f4-cb58f3aeb91b/card.jpg</t>
+  </si>
+  <si>
+    <t>When Dockside Extortionist enters the battlefield, create X Treasure tokens, where X is the number of artifacts and enchantments your opponents control. (Treasure tokens are artifacts with "[Tap], Sacrifice this artifact: Add one mana of any color.")</t>
+  </si>
+  <si>
+    <t>c1a31d52-a407-4ded-bfca-cc812f11afa0</t>
+  </si>
+  <si>
+    <t>Mana Vault</t>
+  </si>
+  <si>
+    <t>https://data.cardsandhobbies.com/images/c1a31d52-a407-4ded-bfca-cc812f11afa0/card.jpg</t>
+  </si>
+  <si>
+    <t>Mana Vault doesn't untap during your untap step.
 At the beginning of your upkeep, you may pay [4]. If you do, untap Mana Vault.
 At the beginning of your draw step, if Mana Vault is tapped, it deals 1 damage to you.
 [Tap]: Add [C][C][C].</t>
@@ -125,11 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,22 +146,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -161,7 +154,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -178,7 +171,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -186,61 +179,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -299,28 +255,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="224.86"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="224.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,17 +609,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" ht="30.75">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -360,17 +629,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" ht="45.75">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>553</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -380,17 +649,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" ht="30.75">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -400,57 +669,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>57</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>107</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" ht="60.75">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>308</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -462,18 +731,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://data.cardsandhobbies.com/images/1778cf9a-2703-41e9-86d7-ec21af8cf61d/card.jpg"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://data.cardsandhobbies.com/images/1825a719-1b2a-4af9-9cd2-7cb497cd0317/card.jpg"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://data.cardsandhobbies.com/images/3c429c40-2389-41e5-8681-4bb274e25eba/card.jpg"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://data.cardsandhobbies.com/images/9e2e3efb-75cb-430f-b9f4-cb58f3aeb91b/card.jpg"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://data.cardsandhobbies.com/images/c1a31d52-a407-4ded-bfca-cc812f11afa0/card.jpg"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{5701C324-0753-4AF7-B78B-FC85FF54AE85}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>